--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -69,202 +69,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>100M</t>
+    <t>amount1</t>
   </si>
   <si>
-    <t>1st amount</t>
+    <t>amount2</t>
   </si>
   <si>
-    <t>20M</t>
-  </si>
-  <si>
-    <t>5M</t>
-  </si>
-  <si>
-    <t>2nd amount</t>
-  </si>
-  <si>
-    <t>3rd amount</t>
-  </si>
-  <si>
-    <t>120M</t>
-  </si>
-  <si>
-    <t>30M</t>
-  </si>
-  <si>
-    <t>8M</t>
-  </si>
-  <si>
-    <t>24M</t>
-  </si>
-  <si>
-    <t>6M</t>
-  </si>
-  <si>
-    <t>150M</t>
-  </si>
-  <si>
-    <t>180M</t>
-  </si>
-  <si>
-    <t>36M</t>
-  </si>
-  <si>
-    <t>9M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30M </t>
-  </si>
-  <si>
-    <t>170M</t>
-  </si>
-  <si>
-    <t>34M</t>
-  </si>
-  <si>
-    <t>220M</t>
-  </si>
-  <si>
-    <t>44M</t>
-  </si>
-  <si>
-    <t>11M</t>
-  </si>
-  <si>
-    <t>200M</t>
-  </si>
-  <si>
-    <t>40M</t>
-  </si>
-  <si>
-    <t>10M</t>
-  </si>
-  <si>
-    <t>42M</t>
-  </si>
-  <si>
-    <t>250M</t>
-  </si>
-  <si>
-    <t>280M</t>
-  </si>
-  <si>
-    <t>50M</t>
-  </si>
-  <si>
-    <t>13M</t>
-  </si>
-  <si>
-    <t>56M</t>
-  </si>
-  <si>
-    <t>14M</t>
-  </si>
-  <si>
-    <t>270M</t>
-  </si>
-  <si>
-    <t>54M</t>
-  </si>
-  <si>
-    <t>300M</t>
-  </si>
-  <si>
-    <t>60M</t>
-  </si>
-  <si>
-    <t>15M</t>
-  </si>
-  <si>
-    <t>330M</t>
-  </si>
-  <si>
-    <t>66M</t>
-  </si>
-  <si>
-    <t>17M</t>
-  </si>
-  <si>
-    <t>360M</t>
-  </si>
-  <si>
-    <t>72M</t>
-  </si>
-  <si>
-    <t>18M</t>
-  </si>
-  <si>
-    <t>400M</t>
-  </si>
-  <si>
-    <t>80M</t>
-  </si>
-  <si>
-    <t>430M</t>
-  </si>
-  <si>
-    <t>450M</t>
-  </si>
-  <si>
-    <t>110M</t>
-  </si>
-  <si>
-    <t>35M</t>
-  </si>
-  <si>
-    <t>500M</t>
-  </si>
-  <si>
-    <t>550M</t>
-  </si>
-  <si>
-    <t>575M</t>
-  </si>
-  <si>
-    <t>600M</t>
-  </si>
-  <si>
-    <t>225M</t>
-  </si>
-  <si>
-    <t>65M</t>
-  </si>
-  <si>
-    <t>70M</t>
-  </si>
-  <si>
-    <t>650M</t>
-  </si>
-  <si>
-    <t>625M</t>
-  </si>
-  <si>
-    <t>700M</t>
-  </si>
-  <si>
-    <t>800M</t>
-  </si>
-  <si>
-    <t>900M</t>
-  </si>
-  <si>
-    <t>275M</t>
-  </si>
-  <si>
-    <t>75M</t>
-  </si>
-  <si>
-    <t>90M</t>
-  </si>
-  <si>
-    <t>95M</t>
-  </si>
-  <si>
-    <t>125M</t>
-  </si>
-  <si>
-    <t>175M</t>
+    <t>amount3</t>
   </si>
 </sst>
 </file>
@@ -598,7 +409,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,14 +456,14 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,14 +479,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+      <c r="E3">
+        <v>120</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -691,14 +502,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -711,14 +522,14 @@
       <c r="C5">
         <v>3163</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
+      <c r="E5">
+        <v>150</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,14 +542,14 @@
       <c r="C6">
         <v>2855</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,14 +562,14 @@
       <c r="C7">
         <v>3021</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -771,14 +582,14 @@
       <c r="C8">
         <v>3380</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
+      <c r="E8">
+        <v>120</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,14 +602,14 @@
       <c r="C9">
         <v>3628</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,14 +622,14 @@
       <c r="C10">
         <v>3795</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="E10">
+        <v>220</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,14 +642,14 @@
       <c r="C11">
         <v>3511</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
+      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,14 +662,14 @@
       <c r="C12">
         <v>3723</v>
       </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,14 +682,14 @@
       <c r="C13">
         <v>3870</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
+      <c r="E13">
+        <v>220</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,14 +702,14 @@
       <c r="C14">
         <v>3953</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
+      <c r="E14">
+        <v>220</v>
+      </c>
+      <c r="F14">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,14 +722,14 @@
       <c r="C15">
         <v>4390</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,14 +742,14 @@
       <c r="C16">
         <v>4543</v>
       </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
+      <c r="E16">
+        <v>280</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,14 +762,14 @@
       <c r="C17">
         <v>4585</v>
       </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,14 +782,14 @@
       <c r="C18">
         <v>4828</v>
       </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
+      <c r="E18">
+        <v>270</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -991,14 +802,14 @@
       <c r="C19">
         <v>5110</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
+      <c r="E19">
+        <v>270</v>
+      </c>
+      <c r="F19">
+        <v>54</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,14 +822,14 @@
       <c r="C20">
         <v>5240</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,14 +842,14 @@
       <c r="C21">
         <v>4838</v>
       </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
+      <c r="E21">
+        <v>330</v>
+      </c>
+      <c r="F21">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,14 +862,14 @@
       <c r="C22">
         <v>5302</v>
       </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
+      <c r="E22">
+        <v>360</v>
+      </c>
+      <c r="F22">
+        <v>72</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,14 +882,14 @@
       <c r="C23">
         <v>5728</v>
       </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
+      <c r="E23">
+        <v>330</v>
+      </c>
+      <c r="F23">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,14 +902,14 @@
       <c r="C24">
         <v>5950</v>
       </c>
-      <c r="E24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
+      <c r="E24">
+        <v>360</v>
+      </c>
+      <c r="F24">
+        <v>72</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,14 +922,14 @@
       <c r="C25">
         <v>6262</v>
       </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
+      <c r="E25">
+        <v>400</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,14 +942,14 @@
       <c r="C26">
         <v>6556</v>
       </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>6</v>
+      <c r="E26">
+        <v>400</v>
+      </c>
+      <c r="F26">
+        <v>80</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,14 +962,14 @@
       <c r="C27">
         <v>6760</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
+      <c r="E27">
+        <v>430</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,14 +982,14 @@
       <c r="C28">
         <v>6963</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
+      <c r="E28">
+        <v>430</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1191,14 +1002,14 @@
       <c r="C29">
         <v>6630</v>
       </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29">
+        <v>80</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1211,14 +1022,14 @@
       <c r="C30">
         <v>6835</v>
       </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="F30">
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,14 +1042,14 @@
       <c r="C31">
         <v>7033</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
+      <c r="E31">
+        <v>430</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,14 +1062,14 @@
       <c r="C32">
         <v>7425</v>
       </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" t="s">
-        <v>51</v>
+      <c r="E32">
+        <v>450</v>
+      </c>
+      <c r="F32">
+        <v>110</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,14 +1082,14 @@
       <c r="C33">
         <v>7570</v>
       </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
+      <c r="E33">
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>170</v>
+      </c>
+      <c r="G33">
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1291,14 +1102,14 @@
       <c r="C34">
         <v>7790</v>
       </c>
-      <c r="E34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>170</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,14 +1122,14 @@
       <c r="C35">
         <v>7817</v>
       </c>
-      <c r="E35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
+      <c r="E35">
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <v>170</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,14 +1142,14 @@
       <c r="C36">
         <v>8125</v>
       </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
+      <c r="E36">
+        <v>550</v>
+      </c>
+      <c r="F36">
+        <v>200</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,14 +1162,14 @@
       <c r="C37">
         <v>8155</v>
       </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
+      <c r="E37">
+        <v>550</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+      <c r="G37">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1371,14 +1182,14 @@
       <c r="C38">
         <v>8411</v>
       </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
+      <c r="E38">
+        <v>575</v>
+      </c>
+      <c r="F38">
+        <v>225</v>
+      </c>
+      <c r="G38">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1391,14 +1202,14 @@
       <c r="C39">
         <v>8365</v>
       </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
+      <c r="E39">
+        <v>575</v>
+      </c>
+      <c r="F39">
+        <v>225</v>
+      </c>
+      <c r="G39">
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,14 +1222,14 @@
       <c r="C40">
         <v>8592</v>
       </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
+      <c r="E40">
+        <v>600</v>
+      </c>
+      <c r="F40">
+        <v>250</v>
+      </c>
+      <c r="G40">
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1431,14 +1242,14 @@
       <c r="C41">
         <v>8828</v>
       </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" t="s">
-        <v>66</v>
+      <c r="E41">
+        <v>650</v>
+      </c>
+      <c r="F41">
+        <v>275</v>
+      </c>
+      <c r="G41">
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1451,14 +1262,14 @@
       <c r="C42">
         <v>9200</v>
       </c>
-      <c r="E42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>47</v>
+      <c r="E42">
+        <v>625</v>
+      </c>
+      <c r="F42">
+        <v>250</v>
+      </c>
+      <c r="G42">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1471,14 +1282,14 @@
       <c r="C43">
         <v>8846</v>
       </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
+      <c r="E43">
+        <v>625</v>
+      </c>
+      <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,14 +1302,14 @@
       <c r="C44">
         <v>9120</v>
       </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
+      <c r="E44">
+        <v>650</v>
+      </c>
+      <c r="F44">
+        <v>275</v>
+      </c>
+      <c r="G44">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,14 +1322,14 @@
       <c r="C45">
         <v>8920</v>
       </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>67</v>
+      <c r="E45">
+        <v>650</v>
+      </c>
+      <c r="F45">
+        <v>275</v>
+      </c>
+      <c r="G45">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,14 +1342,14 @@
       <c r="C46">
         <v>9286</v>
       </c>
-      <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
+      <c r="E46">
+        <v>600</v>
+      </c>
+      <c r="F46">
+        <v>250</v>
+      </c>
+      <c r="G46">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,14 +1362,14 @@
       <c r="C47">
         <v>9569</v>
       </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
+      <c r="E47">
+        <v>700</v>
+      </c>
+      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="G47">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,14 +1382,14 @@
       <c r="C48">
         <v>9823</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
+      <c r="E48">
+        <v>800</v>
+      </c>
+      <c r="F48">
+        <v>400</v>
+      </c>
+      <c r="G48">
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,14 +1402,14 @@
       <c r="C49">
         <v>10010</v>
       </c>
-      <c r="E49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
+      <c r="E49">
+        <v>900</v>
+      </c>
+      <c r="F49">
+        <v>450</v>
+      </c>
+      <c r="G49">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -45,8 +45,8 @@
           </rPr>
           <t xml:space="preserve">
 1. coin
-2. small chest
-3. large chest</t>
+2. chest
+3. fuel</t>
         </r>
       </text>
     </comment>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,16 +500,16 @@
         <v>2863</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,6 +522,9 @@
       <c r="C5">
         <v>3163</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>150</v>
       </c>
@@ -542,6 +545,9 @@
       <c r="C6">
         <v>2855</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6">
         <v>180</v>
       </c>
@@ -562,6 +568,9 @@
       <c r="C7">
         <v>3021</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>150</v>
       </c>
@@ -582,14 +591,17 @@
       <c r="C8">
         <v>3380</v>
       </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="E8">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,6 +614,9 @@
       <c r="C9">
         <v>3628</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>170</v>
       </c>
@@ -622,6 +637,9 @@
       <c r="C10">
         <v>3795</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
       <c r="E10">
         <v>220</v>
       </c>
@@ -642,6 +660,9 @@
       <c r="C11">
         <v>3511</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>180</v>
       </c>
@@ -662,6 +683,9 @@
       <c r="C12">
         <v>3723</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>200</v>
       </c>
@@ -682,6 +706,9 @@
       <c r="C13">
         <v>3870</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>220</v>
       </c>
@@ -702,6 +729,9 @@
       <c r="C14">
         <v>3953</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>220</v>
       </c>
@@ -722,14 +752,17 @@
       <c r="C15">
         <v>4390</v>
       </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
       <c r="E15">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -742,6 +775,9 @@
       <c r="C16">
         <v>4543</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16">
         <v>280</v>
       </c>
@@ -762,6 +798,9 @@
       <c r="C17">
         <v>4585</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>250</v>
       </c>
@@ -782,6 +821,9 @@
       <c r="C18">
         <v>4828</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18">
         <v>270</v>
       </c>
@@ -802,6 +844,9 @@
       <c r="C19">
         <v>5110</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="E19">
         <v>270</v>
       </c>
@@ -822,6 +867,9 @@
       <c r="C20">
         <v>5240</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20">
         <v>300</v>
       </c>
@@ -842,6 +890,9 @@
       <c r="C21">
         <v>4838</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21">
         <v>330</v>
       </c>
@@ -862,6 +913,9 @@
       <c r="C22">
         <v>5302</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22">
         <v>360</v>
       </c>
@@ -882,6 +936,9 @@
       <c r="C23">
         <v>5728</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="E23">
         <v>330</v>
       </c>
@@ -902,14 +959,17 @@
       <c r="C24">
         <v>5950</v>
       </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
       <c r="E24">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="F24">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G24">
-        <v>18</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -922,14 +982,17 @@
       <c r="C25">
         <v>6262</v>
       </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
       <c r="E25">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -942,6 +1005,9 @@
       <c r="C26">
         <v>6556</v>
       </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
       <c r="E26">
         <v>400</v>
       </c>
@@ -962,14 +1028,17 @@
       <c r="C27">
         <v>6760</v>
       </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
       <c r="E27">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G27">
-        <v>30</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,6 +1051,9 @@
       <c r="C28">
         <v>6963</v>
       </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
       <c r="E28">
         <v>430</v>
       </c>
@@ -1002,6 +1074,9 @@
       <c r="C29">
         <v>6630</v>
       </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
       <c r="E29">
         <v>400</v>
       </c>
@@ -1022,6 +1097,9 @@
       <c r="C30">
         <v>6835</v>
       </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
       <c r="E30">
         <v>400</v>
       </c>
@@ -1042,6 +1120,9 @@
       <c r="C31">
         <v>7033</v>
       </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
       <c r="E31">
         <v>430</v>
       </c>
@@ -1062,6 +1143,9 @@
       <c r="C32">
         <v>7425</v>
       </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
       <c r="E32">
         <v>450</v>
       </c>
@@ -1082,14 +1166,17 @@
       <c r="C33">
         <v>7570</v>
       </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
       <c r="E33">
         <v>500</v>
       </c>
       <c r="F33">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,6 +1189,9 @@
       <c r="C34">
         <v>7790</v>
       </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
       <c r="E34">
         <v>500</v>
       </c>
@@ -1122,6 +1212,9 @@
       <c r="C35">
         <v>7817</v>
       </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
       <c r="E35">
         <v>500</v>
       </c>
@@ -1142,6 +1235,9 @@
       <c r="C36">
         <v>8125</v>
       </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
       <c r="E36">
         <v>550</v>
       </c>
@@ -1162,6 +1258,9 @@
       <c r="C37">
         <v>8155</v>
       </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
       <c r="E37">
         <v>550</v>
       </c>
@@ -1182,6 +1281,9 @@
       <c r="C38">
         <v>8411</v>
       </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
       <c r="E38">
         <v>575</v>
       </c>
@@ -1202,6 +1304,9 @@
       <c r="C39">
         <v>8365</v>
       </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
       <c r="E39">
         <v>575</v>
       </c>
@@ -1222,6 +1327,9 @@
       <c r="C40">
         <v>8592</v>
       </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
       <c r="E40">
         <v>600</v>
       </c>
@@ -1242,6 +1350,9 @@
       <c r="C41">
         <v>8828</v>
       </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
       <c r="E41">
         <v>650</v>
       </c>
@@ -1262,6 +1373,9 @@
       <c r="C42">
         <v>9200</v>
       </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
       <c r="E42">
         <v>625</v>
       </c>
@@ -1282,14 +1396,17 @@
       <c r="C43">
         <v>8846</v>
       </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
       <c r="E43">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="F43">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G43">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,6 +1419,9 @@
       <c r="C44">
         <v>9120</v>
       </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
       <c r="E44">
         <v>650</v>
       </c>
@@ -1322,6 +1442,9 @@
       <c r="C45">
         <v>8920</v>
       </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
       <c r="E45">
         <v>650</v>
       </c>
@@ -1342,6 +1465,9 @@
       <c r="C46">
         <v>9286</v>
       </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
       <c r="E46">
         <v>600</v>
       </c>
@@ -1362,6 +1488,9 @@
       <c r="C47">
         <v>9569</v>
       </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
       <c r="E47">
         <v>700</v>
       </c>
@@ -1382,6 +1511,9 @@
       <c r="C48">
         <v>9823</v>
       </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
       <c r="E48">
         <v>800</v>
       </c>
@@ -1402,14 +1534,17 @@
       <c r="C49">
         <v>10010</v>
       </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
       <c r="E49">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F49">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G49">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -45,8 +45,8 @@
           </rPr>
           <t xml:space="preserve">
 1. coin
-2. small chest
-3. large chest</t>
+2. chest
+3. fuel</t>
         </r>
       </text>
     </comment>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -45,8 +45,8 @@
           </rPr>
           <t xml:space="preserve">
 1. coin
-2. chest
-3. fuel</t>
+2. small chest
+3. large chest</t>
         </r>
       </text>
     </comment>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -406,18 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -454,7 +452,7 @@
         <v>1707</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -477,7 +475,7 @@
         <v>2270</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>120</v>
@@ -523,7 +521,7 @@
         <v>3163</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>150</v>
@@ -546,7 +544,7 @@
         <v>2855</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>180</v>
@@ -569,7 +567,7 @@
         <v>3021</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>150</v>
@@ -615,7 +613,7 @@
         <v>3628</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>170</v>
@@ -661,7 +659,7 @@
         <v>3511</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>180</v>
@@ -684,7 +682,7 @@
         <v>3723</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -707,7 +705,7 @@
         <v>3870</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>220</v>
@@ -730,7 +728,7 @@
         <v>3953</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>220</v>
@@ -776,7 +774,7 @@
         <v>4543</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>280</v>
@@ -799,7 +797,7 @@
         <v>4585</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>250</v>
@@ -822,7 +820,7 @@
         <v>4828</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>270</v>
@@ -845,7 +843,7 @@
         <v>5110</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>270</v>
@@ -868,7 +866,7 @@
         <v>5240</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>300</v>
@@ -891,7 +889,7 @@
         <v>4838</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>330</v>
@@ -914,7 +912,7 @@
         <v>5302</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>360</v>
@@ -1052,7 +1050,7 @@
         <v>6963</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>430</v>
@@ -1098,7 +1096,7 @@
         <v>6835</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>400</v>
@@ -1144,7 +1142,7 @@
         <v>7425</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>450</v>
@@ -1545,6 +1543,3480 @@
       </c>
       <c r="G49">
         <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>602</v>
+      </c>
+      <c r="C50">
+        <v>2351</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>500</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>606</v>
+      </c>
+      <c r="C51">
+        <v>1105</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>551</v>
+      </c>
+      <c r="C52">
+        <v>1225</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>448</v>
+      </c>
+      <c r="C53">
+        <v>1300</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>300</v>
+      </c>
+      <c r="C54">
+        <v>1440</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>275</v>
+      </c>
+      <c r="C55">
+        <v>1575</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>425</v>
+      </c>
+      <c r="C56">
+        <v>1640</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>600</v>
+      </c>
+      <c r="C57">
+        <v>1750</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>670</v>
+      </c>
+      <c r="C58">
+        <v>1830</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>750</v>
+      </c>
+      <c r="C59">
+        <v>1980</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>800</v>
+      </c>
+      <c r="C60">
+        <v>2100</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>690</v>
+      </c>
+      <c r="C61">
+        <v>2220</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>781</v>
+      </c>
+      <c r="C62">
+        <v>2366</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>936</v>
+      </c>
+      <c r="C63">
+        <v>2432</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1051</v>
+      </c>
+      <c r="C64">
+        <v>2660</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>987</v>
+      </c>
+      <c r="C65">
+        <v>2779</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1084</v>
+      </c>
+      <c r="C66">
+        <v>2825</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1128</v>
+      </c>
+      <c r="C67">
+        <v>2951</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1015</v>
+      </c>
+      <c r="C68">
+        <v>3020</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>375</v>
+      </c>
+      <c r="C69">
+        <v>2429</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>315</v>
+      </c>
+      <c r="C70">
+        <v>2569</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>240</v>
+      </c>
+      <c r="C71">
+        <v>2676</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>332</v>
+      </c>
+      <c r="C72">
+        <v>2773</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>458</v>
+      </c>
+      <c r="C73">
+        <v>2862</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>510</v>
+      </c>
+      <c r="C74">
+        <v>2977</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>587</v>
+      </c>
+      <c r="C75">
+        <v>3052</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>668</v>
+      </c>
+      <c r="C76">
+        <v>3109</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>576</v>
+      </c>
+      <c r="C77">
+        <v>3201</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>998</v>
+      </c>
+      <c r="C78">
+        <v>3270</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1082</v>
+      </c>
+      <c r="C79">
+        <v>3342</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1139</v>
+      </c>
+      <c r="C80">
+        <v>3428</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1036</v>
+      </c>
+      <c r="C81">
+        <v>3480</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1036</v>
+      </c>
+      <c r="C82">
+        <v>3603</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1185</v>
+      </c>
+      <c r="C83">
+        <v>3658</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1283</v>
+      </c>
+      <c r="C84">
+        <v>3761</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1176</v>
+      </c>
+      <c r="C85">
+        <v>3850</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>981</v>
+      </c>
+      <c r="C86">
+        <v>4118</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>886</v>
+      </c>
+      <c r="C87">
+        <v>4155</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>524</v>
+      </c>
+      <c r="C88">
+        <v>3293</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>441</v>
+      </c>
+      <c r="C89">
+        <v>3400</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>361</v>
+      </c>
+      <c r="C90">
+        <v>3509</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>484</v>
+      </c>
+      <c r="C91">
+        <v>3543</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>596</v>
+      </c>
+      <c r="C92">
+        <v>3638</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>659</v>
+      </c>
+      <c r="C93">
+        <v>3721</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>556</v>
+      </c>
+      <c r="C94">
+        <v>3784</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>5</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>461</v>
+      </c>
+      <c r="C95">
+        <v>3865</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>599</v>
+      </c>
+      <c r="C96">
+        <v>3925</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>751</v>
+      </c>
+      <c r="C97">
+        <v>4066</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>958</v>
+      </c>
+      <c r="C98">
+        <v>4224</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1061</v>
+      </c>
+      <c r="C99">
+        <v>4301</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1228</v>
+      </c>
+      <c r="C100">
+        <v>4339</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+      <c r="F100">
+        <v>5</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1300</v>
+      </c>
+      <c r="C101">
+        <v>4416</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1145</v>
+      </c>
+      <c r="C102">
+        <v>4586</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1202</v>
+      </c>
+      <c r="C103">
+        <v>4686</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>5</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1145</v>
+      </c>
+      <c r="C104">
+        <v>4755</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1260</v>
+      </c>
+      <c r="C105">
+        <v>4816</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1173</v>
+      </c>
+      <c r="C106">
+        <v>4910</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1093</v>
+      </c>
+      <c r="C107">
+        <v>5002</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1173</v>
+      </c>
+      <c r="C108">
+        <v>5103</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>993</v>
+      </c>
+      <c r="C109">
+        <v>5221</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>5</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>895</v>
+      </c>
+      <c r="C110">
+        <v>5356</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>797</v>
+      </c>
+      <c r="C111">
+        <v>5537</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>659</v>
+      </c>
+      <c r="C112">
+        <v>5651</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>519</v>
+      </c>
+      <c r="C113">
+        <v>5712</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>378</v>
+      </c>
+      <c r="C114">
+        <v>5786</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>441</v>
+      </c>
+      <c r="C115">
+        <v>5873</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>654</v>
+      </c>
+      <c r="C116">
+        <v>5884</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>794</v>
+      </c>
+      <c r="C117">
+        <v>5942</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>556</v>
+      </c>
+      <c r="C118">
+        <v>4218</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>484</v>
+      </c>
+      <c r="C119">
+        <v>4339</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>401</v>
+      </c>
+      <c r="C120">
+        <v>4457</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>10</v>
+      </c>
+      <c r="F120">
+        <v>5</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>228</v>
+      </c>
+      <c r="C121">
+        <v>4531</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>10</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>277</v>
+      </c>
+      <c r="C122">
+        <v>4663</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <v>5</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>294</v>
+      </c>
+      <c r="C123">
+        <v>4758</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>10</v>
+      </c>
+      <c r="F123">
+        <v>5</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>444</v>
+      </c>
+      <c r="C124">
+        <v>4821</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>386</v>
+      </c>
+      <c r="C125">
+        <v>4965</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>5</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>418</v>
+      </c>
+      <c r="C126">
+        <v>5111</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>386</v>
+      </c>
+      <c r="C127">
+        <v>5223</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>590</v>
+      </c>
+      <c r="C128">
+        <v>5278</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>5</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>826</v>
+      </c>
+      <c r="C129">
+        <v>5970</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>5</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>932</v>
+      </c>
+      <c r="C130">
+        <v>6111</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>10</v>
+      </c>
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>1021</v>
+      </c>
+      <c r="C131">
+        <v>6191</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>929</v>
+      </c>
+      <c r="C132">
+        <v>6289</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>929</v>
+      </c>
+      <c r="C133">
+        <v>6430</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>918</v>
+      </c>
+      <c r="C134">
+        <v>6634</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>964</v>
+      </c>
+      <c r="C135">
+        <v>6749</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>993</v>
+      </c>
+      <c r="C136">
+        <v>6864</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>843</v>
+      </c>
+      <c r="C137">
+        <v>6921</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>5</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>855</v>
+      </c>
+      <c r="C138">
+        <v>7088</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>5</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>846</v>
+      </c>
+      <c r="C139">
+        <v>7292</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>5</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>944</v>
+      </c>
+      <c r="C140">
+        <v>7452</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>656</v>
+      </c>
+      <c r="C141">
+        <v>7363</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>389</v>
+      </c>
+      <c r="C142">
+        <v>5821</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>5</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>450</v>
+      </c>
+      <c r="C143">
+        <v>5988</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>5</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>358</v>
+      </c>
+      <c r="C144">
+        <v>6131</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>10</v>
+      </c>
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>386</v>
+      </c>
+      <c r="C145">
+        <v>6364</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>240</v>
+      </c>
+      <c r="C146">
+        <v>6533</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>338</v>
+      </c>
+      <c r="C147">
+        <v>6614</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>10</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>286</v>
+      </c>
+      <c r="C148">
+        <v>6746</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>180</v>
+      </c>
+      <c r="C149">
+        <v>6912</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>352</v>
+      </c>
+      <c r="C150">
+        <v>7027</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>355</v>
+      </c>
+      <c r="C151">
+        <v>7208</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>10</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>536</v>
+      </c>
+      <c r="C152">
+        <v>7346</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>1041</v>
+      </c>
+      <c r="C153">
+        <v>7513</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>10</v>
+      </c>
+      <c r="F153">
+        <v>5</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>1107</v>
+      </c>
+      <c r="C154">
+        <v>7616</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>1148</v>
+      </c>
+      <c r="C155">
+        <v>7708</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>1061</v>
+      </c>
+      <c r="C156">
+        <v>7763</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>1130</v>
+      </c>
+      <c r="C157">
+        <v>7878</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1185</v>
+      </c>
+      <c r="C158">
+        <v>7987</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1151</v>
+      </c>
+      <c r="C159">
+        <v>8079</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>10</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1283</v>
+      </c>
+      <c r="C160">
+        <v>8127</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>10</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>1194</v>
+      </c>
+      <c r="C161">
+        <v>8268</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>1050</v>
+      </c>
+      <c r="C162">
+        <v>8369</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>10</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>981</v>
+      </c>
+      <c r="C163">
+        <v>8555</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>10</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>498</v>
+      </c>
+      <c r="C164">
+        <v>7567</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>464</v>
+      </c>
+      <c r="C165">
+        <v>7697</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>10</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>565</v>
+      </c>
+      <c r="C166">
+        <v>7806</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>435</v>
+      </c>
+      <c r="C167">
+        <v>7906</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <v>5</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>361</v>
+      </c>
+      <c r="C168">
+        <v>8018</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>10</v>
+      </c>
+      <c r="F168">
+        <v>5</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>507</v>
+      </c>
+      <c r="C169">
+        <v>8122</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>493</v>
+      </c>
+      <c r="C170">
+        <v>8271</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>10</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>409</v>
+      </c>
+      <c r="C171">
+        <v>8374</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>10</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>550</v>
+      </c>
+      <c r="C172">
+        <v>8498</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>5</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>668</v>
+      </c>
+      <c r="C173">
+        <v>8673</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>10</v>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>1056</v>
+      </c>
+      <c r="C174">
+        <v>8739</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="F174">
+        <v>5</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>1015</v>
+      </c>
+      <c r="C175">
+        <v>8846</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>10</v>
+      </c>
+      <c r="F175">
+        <v>5</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>1059</v>
+      </c>
+      <c r="C176">
+        <v>8937</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>10</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>975</v>
+      </c>
+      <c r="C177">
+        <v>9047</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>10</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>889</v>
+      </c>
+      <c r="C178">
+        <v>9187</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>10</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>398</v>
+      </c>
+      <c r="C179">
+        <v>8754</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>237</v>
+      </c>
+      <c r="C180">
+        <v>8765</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>292</v>
+      </c>
+      <c r="C181">
+        <v>8923</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>343</v>
+      </c>
+      <c r="C182">
+        <v>9067</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>415</v>
+      </c>
+      <c r="C183">
+        <v>9144</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183">
+        <v>5</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>490</v>
+      </c>
+      <c r="C184">
+        <v>9308</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>5</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>668</v>
+      </c>
+      <c r="C185">
+        <v>9357</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>5</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>700</v>
+      </c>
+      <c r="C186">
+        <v>8771</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>682</v>
+      </c>
+      <c r="C187">
+        <v>8920</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>731</v>
+      </c>
+      <c r="C188">
+        <v>9018</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>743</v>
+      </c>
+      <c r="C189">
+        <v>9205</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>10</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>711</v>
+      </c>
+      <c r="C190">
+        <v>9446</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>10</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>651</v>
+      </c>
+      <c r="C191">
+        <v>9535</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>10</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>694</v>
+      </c>
+      <c r="C192">
+        <v>9673</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>10</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>691</v>
+      </c>
+      <c r="C193">
+        <v>9891</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>10</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>740</v>
+      </c>
+      <c r="C194">
+        <v>9831</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>10</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>587</v>
+      </c>
+      <c r="C195">
+        <v>9917</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>10</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>10</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>10</v>
+      </c>
+      <c r="F197">
+        <v>5</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>10</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>10</v>
+      </c>
+      <c r="F199">
+        <v>5</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>10</v>
+      </c>
+      <c r="F200">
+        <v>5</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Treasure_coord_gold.xlsx
+++ b/Treasure_coord_gold.xlsx
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,119 +4904,26 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>298</v>
+      </c>
+      <c r="C196">
+        <v>1097</v>
+      </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F196">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="D197">
-        <v>1</v>
-      </c>
-      <c r="E197">
-        <v>10</v>
-      </c>
-      <c r="F197">
-        <v>5</v>
-      </c>
-      <c r="G197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="D198">
-        <v>1</v>
-      </c>
-      <c r="E198">
-        <v>10</v>
-      </c>
-      <c r="F198">
-        <v>5</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="D199">
-        <v>1</v>
-      </c>
-      <c r="E199">
-        <v>10</v>
-      </c>
-      <c r="F199">
-        <v>5</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="D200">
-        <v>1</v>
-      </c>
-      <c r="E200">
-        <v>10</v>
-      </c>
-      <c r="F200">
-        <v>5</v>
-      </c>
-      <c r="G200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="D201">
-        <v>1</v>
-      </c>
-      <c r="E201">
-        <v>10</v>
-      </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="D202">
-        <v>1</v>
-      </c>
-      <c r="E202">
-        <v>10</v>
-      </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
